--- a/skrum_docs/04_SpecificDesign/23_Setting(User)_ユーザ設定画面仕様書_20170713.xlsx
+++ b/skrum_docs/04_SpecificDesign/23_Setting(User)_ユーザ設定画面仕様書_20170713.xlsx
@@ -520,6 +520,179 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
             <a:t> which is selected in the dropdown list.</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3606800" y="1828800"/>
+          <a:ext cx="10464800" cy="1625600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="558800"/>
+          <a:ext cx="3060700" cy="1854200"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 56856"/>
+            <a:gd name="adj2" fmla="val 76779"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>【User who can see】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SUPER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ADMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>BASIC USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>×</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
         </a:p>
@@ -5041,6 +5214,341 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12636500" y="15189200"/>
+          <a:ext cx="2235200" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="四角形吹き出し 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15341600" y="14757400"/>
+          <a:ext cx="3060700" cy="6197600"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -62231"/>
+            <a:gd name="adj2" fmla="val -31418"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>【User who can see】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>For BASIC USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SUPER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ADMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>BASIC USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>×</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>For ADMIN USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SUPER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ADMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>BASIC USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>×</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>For SUPER USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>SUPER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　◯</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>ADMIN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t> USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>×</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>BASIC USER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+            <a:t>×</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
